--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Matsumoto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Tegevajaro Miyazaki</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.52</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.4</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1.39</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.68</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.52</v>
+        <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,64 +1126,64 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>9.4</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>2.74</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,28 +1468,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.93</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,25 +1738,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>1.93</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.87</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
-        <v>7.4</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>1.09</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>1.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.06</v>
+        <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07</v>
+        <v>5.8</v>
       </c>
       <c r="H13" t="n">
-        <v>65</v>
+        <v>1.85</v>
       </c>
       <c r="I13" t="n">
-        <v>70</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>23</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.22</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2278,61 +2278,61 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
         <v>38</v>
       </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.2</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.51</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>8.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>3.7</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>1.86</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.88</v>
+        <v>2.54</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM15" t="n">
         <v>70</v>
       </c>
-      <c r="AG15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>55</v>
-      </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -2548,61 +2548,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>1.06</v>
       </c>
       <c r="H16" t="n">
-        <v>2.16</v>
+        <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>80</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>26</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>13.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="T16" t="n">
-        <v>1.47</v>
+        <v>2.88</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>1.87</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>2.18</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.24</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="n">
         <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG17" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.45</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>6.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.78</v>
+        <v>6.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,66 +3083,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.66</v>
+        <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>1.52</v>
       </c>
       <c r="H21" t="n">
-        <v>2.82</v>
+        <v>7.8</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3623,125 +3623,530 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Vasco Da Gama</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Cruzeiro MG</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F27" t="n">
         <v>3.3</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G27" t="n">
         <v>3.65</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="H27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.5</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>7.2</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.48</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.07</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
         <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1099,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
         <v>1.56</v>
@@ -1120,61 +1120,61 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="n">
         <v>6.2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
         <v>9.4</v>
@@ -1219,97 +1219,97 @@
         <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>14</v>
-      </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AK6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
         <v>4.8</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
@@ -1375,7 +1375,7 @@
         <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>7.4</v>
@@ -1753,13 +1753,13 @@
         <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1780,7 +1780,7 @@
         <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
         <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I11" t="n">
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2155,19 +2155,19 @@
         <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G14" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2323,16 +2323,16 @@
         <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
         <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
         <v>260</v>
@@ -2356,19 +2356,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2377,19 +2377,19 @@
         <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO14" t="n">
         <v>170</v>
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>1.06</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>70</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>80</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>24</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>12.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="S15" t="n">
-        <v>2.72</v>
+        <v>1.61</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2.54</v>
+        <v>1.46</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>7.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>1.94</v>
       </c>
       <c r="AO15" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.05</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="N16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
         <v>70</v>
       </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23</v>
-      </c>
-      <c r="K16" t="n">
-        <v>26</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>990</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN16" t="n">
-        <v>1.87</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2716,28 +2716,28 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S17" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U17" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
         <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
         <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
         <v>1.45</v>
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K18" t="n">
         <v>5.8</v>
@@ -2851,7 +2851,7 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.15</v>
@@ -2863,7 +2863,7 @@
         <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S18" t="n">
         <v>2.14</v>
@@ -2881,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
@@ -2899,10 +2899,10 @@
         <v>13.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
         <v>11.5</v>
@@ -2914,7 +2914,7 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
         <v>14</v>
@@ -2923,16 +2923,16 @@
         <v>12.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
         <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2998,7 +2998,7 @@
         <v>1.34</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
         <v>1.86</v>
@@ -3025,13 +3025,13 @@
         <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB19" t="n">
         <v>44</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
         <v>10.5</v>
@@ -3040,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3064,7 +3064,7 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
         <v>4.2</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.1</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.14</v>
-      </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>3.9</v>
@@ -3127,22 +3127,22 @@
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
         <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T20" t="n">
         <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>29</v>
@@ -3187,10 +3187,10 @@
         <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3235,7 +3235,7 @@
         <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H21" t="n">
         <v>7.8</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.55</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3643,13 +3643,13 @@
         <v>2.94</v>
       </c>
       <c r="H24" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
         <v>2.28</v>
@@ -3772,40 +3772,40 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.04</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
@@ -3922,7 +3922,7 @@
         <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
         <v>3.65</v>
       </c>
       <c r="H27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
         <v>2.52</v>
@@ -4057,7 +4057,7 @@
         <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.2</v>
+        <v>1.49</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I4" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W4" t="n">
         <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z4" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1078,16 +1078,16 @@
         <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1105,7 +1105,7 @@
         <v>2.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.56</v>
@@ -1114,13 +1114,13 @@
         <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>9.4</v>
@@ -1147,13 +1147,13 @@
         <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
         <v>22</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1237,46 +1237,46 @@
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
         <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
         <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
         <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
         <v>9.800000000000001</v>
@@ -1291,7 +1291,7 @@
         <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1345,109 +1345,109 @@
         <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1489,22 +1489,22 @@
         <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
         <v>2.04</v>
@@ -1513,76 +1513,76 @@
         <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1621,25 +1621,25 @@
         <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
         <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P9" t="n">
         <v>3.25</v>
@@ -1648,76 +1648,76 @@
         <v>1.34</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.7</v>
@@ -1765,94 +1765,94 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1888,106 +1888,106 @@
         <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2023,28 +2023,28 @@
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
         <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
         <v>1.15</v>
@@ -2053,76 +2053,76 @@
         <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,109 +2155,109 @@
         <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
         <v>2.04</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P13" t="n">
         <v>1.9</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.87</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2335,28 +2335,28 @@
         <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
         <v>28</v>
@@ -2368,31 +2368,31 @@
         <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2428,19 +2428,19 @@
         <v>1.06</v>
       </c>
       <c r="H15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I15" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
         <v>24</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2458,10 +2458,10 @@
         <v>1.24</v>
       </c>
       <c r="R15" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="S15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>1.46</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="X15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2515,7 +2515,7 @@
         <v>7.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2560,22 +2560,22 @@
         <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2584,7 +2584,7 @@
         <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
         <v>2.36</v>
@@ -2599,70 +2599,70 @@
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16</v>
-      </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
         <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U17" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="n">
         <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
         <v>55</v>
       </c>
-      <c r="AM17" t="n">
-        <v>46</v>
-      </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G18" t="n">
         <v>1.45</v>
       </c>
       <c r="H18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
@@ -2845,7 +2845,7 @@
         <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -2863,7 +2863,7 @@
         <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>2.14</v>
@@ -2872,19 +2872,19 @@
         <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="n">
         <v>38</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>40</v>
       </c>
       <c r="Z18" t="n">
         <v>75</v>
@@ -2896,25 +2896,25 @@
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
         <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>14</v>
@@ -2923,16 +2923,16 @@
         <v>12.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
         <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="J19" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z19" t="n">
         <v>19</v>
       </c>
-      <c r="Z19" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
         <v>18</v>
       </c>
-      <c r="AB19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH19" t="n">
         <v>14</v>
       </c>
-      <c r="AF19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="20">
@@ -3100,22 +3100,22 @@
         <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
         <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3127,13 +3127,13 @@
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
         <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S20" t="n">
         <v>2.86</v>
@@ -3142,22 +3142,22 @@
         <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
         <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
         <v>70</v>
@@ -3166,43 +3166,43 @@
         <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
         <v>7.8</v>
@@ -3244,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
         <v>5.3</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.66</v>
+        <v>1.78</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>2.86</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.9</v>
+        <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>2.08</v>
+        <v>2.96</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.55</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>2.34</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
         <v>2.24</v>
@@ -4147,6 +4147,276 @@
         <v>0</v>
       </c>
       <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Deportivo Tachira</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.52</v>
@@ -952,31 +952,31 @@
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>1.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="T4" t="n">
         <v>2.24</v>
@@ -985,46 +985,46 @@
         <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="W4" t="n">
         <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1084,13 +1084,13 @@
         <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>9.4</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G6" t="n">
         <v>9.800000000000001</v>
@@ -1222,7 +1222,7 @@
         <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1243,16 +1243,16 @@
         <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S6" t="n">
         <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>3.5</v>
@@ -1264,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="n">
         <v>12.5</v>
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G7" t="n">
         <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.61</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>2.48</v>
@@ -1375,28 +1375,28 @@
         <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
         <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Y7" t="n">
         <v>7.8</v>
@@ -1438,7 +1438,7 @@
         <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
         <v>250</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.58</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.96</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="G9" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,34 +1636,34 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="n">
         <v>1.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S9" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="X9" t="n">
         <v>65</v>
@@ -1708,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1780,7 +1780,7 @@
         <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
@@ -1789,16 +1789,16 @@
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1810,25 +1810,25 @@
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
@@ -1852,7 +1852,7 @@
         <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,13 +1912,13 @@
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
         <v>3.25</v>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.04</v>
@@ -2185,61 +2185,61 @@
         <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
         <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
         <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2296,7 +2296,7 @@
         <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2317,10 +2317,10 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
         <v>1.41</v>
@@ -2332,7 +2332,7 @@
         <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
         <v>1.15</v>
@@ -2350,7 +2350,7 @@
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
         <v>8.199999999999999</v>
@@ -2359,10 +2359,10 @@
         <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
         <v>8.6</v>
@@ -2386,13 +2386,13 @@
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2434,7 +2434,7 @@
         <v>95</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
         <v>24</v>
@@ -2455,7 +2455,7 @@
         <v>4.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R15" t="n">
         <v>2.52</v>
@@ -2464,10 +2464,10 @@
         <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2491,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2515,7 +2515,7 @@
         <v>7.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2575,13 +2575,13 @@
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
@@ -2590,13 +2590,13 @@
         <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T16" t="n">
         <v>1.62</v>
@@ -2620,7 +2620,7 @@
         <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
@@ -2647,13 +2647,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
         <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
         <v>65</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.2</v>
+        <v>1.43</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>1.45</v>
       </c>
       <c r="H17" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.51</v>
+        <v>7.8</v>
       </c>
       <c r="J17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="T17" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.96</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>1.18</v>
+        <v>3.2</v>
       </c>
       <c r="X17" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>14</v>
       </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>150</v>
-      </c>
       <c r="AK17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO17" t="n">
         <v>65</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>4.2</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>6.2</v>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>1.52</v>
       </c>
       <c r="J18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.6</v>
       </c>
-      <c r="K18" t="n">
-        <v>5.8</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>2.94</v>
       </c>
       <c r="W18" t="n">
-        <v>3.2</v>
+        <v>1.18</v>
       </c>
       <c r="X18" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="n">
         <v>36</v>
       </c>
-      <c r="Y18" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>2.14</v>
@@ -3010,10 +3010,10 @@
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
         <v>30</v>
@@ -3061,7 +3061,7 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN19" t="n">
         <v>16.5</v>
@@ -3100,13 +3100,13 @@
         <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
         <v>3.85</v>
@@ -3124,7 +3124,7 @@
         <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
         <v>2.28</v>
@@ -3133,34 +3133,34 @@
         <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
         <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
         <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3196,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
         <v>12</v>
@@ -3235,109 +3235,109 @@
         <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H21" t="n">
         <v>7.8</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
         <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3379,34 +3379,34 @@
         <v>1000</v>
       </c>
       <c r="J22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.02</v>
       </c>
-      <c r="K22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.31</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.65</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
         <v>1.45</v>
@@ -3535,79 +3535,79 @@
         <v>1.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH23" t="n">
         <v>21</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AI23" t="n">
         <v>65</v>
       </c>
-      <c r="AF23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN23" t="n">
         <v>46</v>
       </c>
-      <c r="AL23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.45</v>
@@ -3661,7 +3661,7 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -3676,19 +3676,19 @@
         <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G25" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.4</v>
@@ -3793,85 +3793,85 @@
         <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
         <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF25" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>24</v>
-      </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
@@ -3919,10 +3919,10 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.43</v>
@@ -3937,7 +3937,7 @@
         <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q26" t="n">
         <v>2.04</v>
@@ -3949,19 +3949,19 @@
         <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
         <v>16</v>
@@ -3976,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>980</v>
@@ -3991,7 +3991,7 @@
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
         <v>70</v>
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.52</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P27" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>1.49</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>2.54</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4330,94 +4330,229 @@
         <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="G4" t="n">
         <v>13.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="I4" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="T4" t="n">
         <v>2.24</v>
@@ -985,34 +985,34 @@
         <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="W4" t="n">
         <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1096,25 +1096,25 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
         <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
         <v>2.08</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G6" t="n">
         <v>9.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>1.39</v>
@@ -1222,13 +1222,13 @@
         <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
@@ -1240,7 +1240,7 @@
         <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
         <v>1.68</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
@@ -1288,7 +1288,7 @@
         <v>85</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.17</v>
@@ -1384,34 +1384,34 @@
         <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>7.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>13.5</v>
@@ -1420,31 +1420,31 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
         <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO7" t="n">
         <v>55</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,88 +1501,88 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>1.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="X9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>38</v>
-      </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.31</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
       </c>
       <c r="P10" t="n">
         <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.78</v>
@@ -1798,7 +1798,7 @@
         <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1828,13 +1828,13 @@
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>980</v>
@@ -1846,7 +1846,7 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
         <v>980</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,16 +1912,16 @@
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.17</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -2152,40 +2152,40 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
         <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O13" t="n">
         <v>1.04</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
         <v>1.28</v>
@@ -2194,16 +2194,16 @@
         <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G14" t="n">
         <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
@@ -2305,7 +2305,7 @@
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2335,10 +2335,10 @@
         <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2350,7 +2350,7 @@
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB14" t="n">
         <v>8.199999999999999</v>
@@ -2359,13 +2359,13 @@
         <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
         <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG14" t="n">
         <v>9.6</v>
@@ -2389,10 +2389,10 @@
         <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>80</v>
       </c>
       <c r="I15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J15" t="n">
         <v>22</v>
@@ -2440,7 +2440,7 @@
         <v>24</v>
       </c>
       <c r="L15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2452,22 +2452,22 @@
         <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Q15" t="n">
         <v>1.23</v>
       </c>
       <c r="R15" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T15" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2476,7 +2476,7 @@
         <v>17.5</v>
       </c>
       <c r="X15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2491,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2575,31 +2575,31 @@
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
         <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
         <v>2.74</v>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
         <v>2.52</v>
@@ -2614,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
         <v>27</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
         <v>1.45</v>
       </c>
       <c r="H17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I17" t="n">
         <v>7.8</v>
       </c>
       <c r="J17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K17" t="n">
         <v>5.8</v>
@@ -2713,7 +2713,7 @@
         <v>1.23</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>7.2</v>
@@ -2722,16 +2722,16 @@
         <v>1.15</v>
       </c>
       <c r="P17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T17" t="n">
         <v>1.68</v>
@@ -2743,7 +2743,7 @@
         <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X17" t="n">
         <v>36</v>
@@ -2767,7 +2767,7 @@
         <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="n">
         <v>11.5</v>
@@ -2782,22 +2782,22 @@
         <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK17" t="n">
         <v>12.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -2827,67 +2827,67 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O18" t="n">
         <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="S18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U18" t="n">
         <v>2.86</v>
       </c>
       <c r="V18" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X18" t="n">
         <v>44</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
         <v>17</v>
@@ -2896,7 +2896,7 @@
         <v>46</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
         <v>10.5</v>
@@ -2905,10 +2905,10 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>17.5</v>
@@ -2932,7 +2932,7 @@
         <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2992,16 +2992,16 @@
         <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R19" t="n">
         <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
         <v>1.46</v>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W19" t="n">
         <v>1.41</v>
@@ -3022,25 +3022,25 @@
         <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3061,7 +3061,7 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN19" t="n">
         <v>16.5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J20" t="n">
         <v>3.85</v>
@@ -3127,7 +3127,7 @@
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.74</v>
@@ -3136,31 +3136,31 @@
         <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T20" t="n">
         <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X20" t="n">
         <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3169,10 +3169,10 @@
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
         <v>14.5</v>
@@ -3190,19 +3190,19 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3232,109 +3232,109 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="G21" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="H21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I21" t="n">
         <v>7.8</v>
       </c>
-      <c r="I21" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="W21" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Carabobo FC</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.31</v>
+        <v>2.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>1.38</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
         <v>3.3</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="X23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,115 +3628,115 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.69</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.94</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.94</v>
+        <v>2.06</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.15</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="X25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>980</v>
       </c>
-      <c r="AF25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
         <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM25" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="G26" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="O26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.35</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
         <v>16</v>
       </c>
-      <c r="Y26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="n">
         <v>65</v>
       </c>
-      <c r="AF26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>980</v>
-      </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,115 +4033,115 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>2.54</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.49</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="W27" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,120 +4163,120 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K28" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.41</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.71</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>1.39</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
         <v>1000</v>
@@ -4303,12 +4303,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4336,13 +4336,13 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="Q29" t="n">
         <v>1.02</v>
@@ -4351,7 +4351,7 @@
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -4471,7 +4471,7 @@
         <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.49</v>
@@ -4486,7 +4486,7 @@
         <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
         <v>2.08</v>
@@ -4501,7 +4501,7 @@
         <v>1.25</v>
       </c>
       <c r="X30" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>7.4</v>
@@ -4519,16 +4519,16 @@
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
         <v>29</v>
       </c>
       <c r="AF30" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
@@ -4537,22 +4537,22 @@
         <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -793,12 +793,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,96 +923,96 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.4</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1.46</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>1.26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>1.02</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>1.27</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>1.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.1</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
       </c>
       <c r="T7" t="n">
         <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z7" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z7" t="n">
-        <v>16</v>
-      </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>1.47</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>14</v>
       </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.3</v>
+        <v>9.4</v>
       </c>
       <c r="G9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.39</v>
       </c>
-      <c r="H9" t="n">
-        <v>8.6</v>
-      </c>
       <c r="I9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X9" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>20</v>
-      </c>
       <c r="AD9" t="n">
-        <v>44</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.2</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>2.78</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>2.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>980</v>
       </c>
-      <c r="Y10" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN10" t="n">
         <v>70</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>980</v>
-      </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1873,106 +1873,106 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2008,73 +2008,73 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.09</v>
       </c>
-      <c r="G12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,46 +2083,46 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.9</v>
       </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.78</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.55</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.39</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.78</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,75 +2408,75 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.05</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H15" t="n">
-        <v>80</v>
-      </c>
-      <c r="I15" t="n">
-        <v>90</v>
-      </c>
-      <c r="J15" t="n">
-        <v>22</v>
-      </c>
-      <c r="K15" t="n">
-        <v>24</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N15" t="n">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>4.7</v>
+        <v>1.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
-        <v>2.48</v>
+        <v>1.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2512,10 +2512,10 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>1.78</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.23</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,19 +2683,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
         <v>7.6</v>
@@ -2704,100 +2704,100 @@
         <v>7.8</v>
       </c>
       <c r="J17" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
         <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="X17" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="n">
         <v>13.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.4</v>
+        <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>1.06</v>
       </c>
       <c r="H18" t="n">
+        <v>85</v>
+      </c>
+      <c r="I18" t="n">
+        <v>95</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22</v>
+      </c>
+      <c r="K18" t="n">
+        <v>23</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.47</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.86</v>
-      </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.17</v>
+        <v>17.5</v>
       </c>
       <c r="X18" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.5</v>
+        <v>310</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK18" t="n">
         <v>21</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>1.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.74</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.06</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>3.95</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
         <v>18</v>
       </c>
-      <c r="Y20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AF20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO20" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I21" t="n">
         <v>7.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>2.14</v>
       </c>
       <c r="T21" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
         <v>1.14</v>
       </c>
       <c r="W21" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
         <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.82</v>
+        <v>6.6</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.76</v>
+        <v>1.48</v>
       </c>
       <c r="I22" t="n">
-        <v>2.98</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.9</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="X22" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD22" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM22" t="n">
         <v>55</v>
       </c>
-      <c r="AB22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AN22" t="n">
         <v>40</v>
       </c>
-      <c r="AF22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>44</v>
-      </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>1.57</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.15</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>2.54</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK24" t="n">
         <v>20</v>
       </c>
-      <c r="AA24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
       <c r="AL24" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>2.86</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.3</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>1.94</v>
+        <v>1.55</v>
       </c>
       <c r="X25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>980</v>
-      </c>
       <c r="AE25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
         <v>65</v>
       </c>
-      <c r="AF25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -3893,123 +3893,123 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.65</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>4.1</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
         <v>3.55</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.82</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="R26" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.96</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN26" t="n">
         <v>14</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>34</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4028,120 +4028,120 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>2.68</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.47</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
         <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>980</v>
       </c>
       <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>980</v>
       </c>
-      <c r="AG27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>65</v>
-      </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
         <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>1.39</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,123 +4298,123 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Carabobo FC</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.31</v>
+        <v>2.86</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.02</v>
+        <v>2.36</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>1.37</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4433,125 +4433,530 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>980</v>
       </c>
       <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Deportivo Tachira</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Carabobo FC</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC33" t="n">
         <v>8</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD33" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE33" t="n">
         <v>29</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF33" t="n">
         <v>40</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG33" t="n">
         <v>20</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH33" t="n">
         <v>25</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI33" t="n">
         <v>55</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ33" t="n">
         <v>150</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK33" t="n">
         <v>80</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL33" t="n">
         <v>110</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AM33" t="n">
         <v>210</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN33" t="n">
         <v>140</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AO33" t="n">
         <v>25</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -667,88 +667,88 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -757,22 +757,22 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>950</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -943,13 +943,13 @@
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -970,19 +970,19 @@
         <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1111,13 +1111,13 @@
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1213,13 +1213,13 @@
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1246,13 +1246,13 @@
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1375,7 +1375,7 @@
         <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
@@ -1384,13 +1384,13 @@
         <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
         <v>1.09</v>
@@ -1411,10 +1411,10 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1507,25 +1507,25 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
         <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W8" t="n">
         <v>1.14</v>
@@ -1537,13 +1537,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1561,28 +1561,28 @@
         <v>28</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AK8" t="n">
         <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G9" t="n">
         <v>9.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.6</v>
       </c>
       <c r="H9" t="n">
         <v>1.39</v>
@@ -1642,13 +1642,13 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
         <v>2.38</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
@@ -1765,46 +1765,46 @@
         <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="P10" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
         <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
         <v>16</v>
@@ -1813,46 +1813,46 @@
         <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL10" t="n">
         <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1891,16 +1891,16 @@
         <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
@@ -1963,16 +1963,16 @@
         <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2101,7 +2101,7 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
         <v>3.3</v>
       </c>
       <c r="T13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.83</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2215,10 +2215,10 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>980</v>
@@ -2227,10 +2227,10 @@
         <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
         <v>980</v>
@@ -2257,7 +2257,7 @@
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
         <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I14" t="n">
         <v>3.2</v>
@@ -2302,10 +2302,10 @@
         <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2320,7 +2320,7 @@
         <v>1.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
         <v>1.29</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
@@ -2461,13 +2461,13 @@
         <v>1.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2560,7 +2560,7 @@
         <v>4.3</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
         <v>1.78</v>
@@ -2584,10 +2584,10 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q16" t="n">
         <v>1.87</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.39</v>
@@ -2722,82 +2722,82 @@
         <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
         <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AB17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="n">
         <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
         <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>1.06</v>
       </c>
       <c r="H18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I18" t="n">
         <v>95</v>
@@ -2857,16 +2857,16 @@
         <v>1.07</v>
       </c>
       <c r="P18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q18" t="n">
         <v>1.24</v>
       </c>
       <c r="R18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T18" t="n">
         <v>3.05</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2908,7 +2908,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,7 +2917,7 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK18" t="n">
         <v>21</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,7 +2986,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
@@ -2995,28 +2995,28 @@
         <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
         <v>2.74</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
         <v>17</v>
@@ -3034,7 +3034,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>34</v>
@@ -3058,13 +3058,13 @@
         <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
         <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
         <v>26</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.14</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.16</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3127,16 +3127,16 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
         <v>1.46</v>
@@ -3145,10 +3145,10 @@
         <v>3.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
@@ -3160,10 +3160,10 @@
         <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="n">
         <v>10.5</v>
@@ -3190,16 +3190,16 @@
         <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO20" t="n">
         <v>8.6</v>
@@ -3241,13 +3241,13 @@
         <v>7.6</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K21" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.24</v>
@@ -3262,13 +3262,13 @@
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S21" t="n">
         <v>2.14</v>
@@ -3283,10 +3283,10 @@
         <v>1.14</v>
       </c>
       <c r="W21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
         <v>38</v>
@@ -3307,7 +3307,7 @@
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="n">
         <v>11.5</v>
@@ -3322,13 +3322,13 @@
         <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>12.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
@@ -3337,7 +3337,7 @@
         <v>4.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>1.48</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J22" t="n">
         <v>5.5</v>
@@ -3391,7 +3391,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
         <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>1.34</v>
@@ -3532,7 +3532,7 @@
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
         <v>1.73</v>
@@ -3541,22 +3541,22 @@
         <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T23" t="n">
         <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>18.5</v>
@@ -3577,22 +3577,22 @@
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
         <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>18.5</v>
@@ -3640,7 +3640,7 @@
         <v>1.57</v>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
@@ -3667,10 +3667,10 @@
         <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
         <v>1.39</v>
@@ -3694,7 +3694,7 @@
         <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>95</v>
@@ -3730,7 +3730,7 @@
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL24" t="n">
         <v>38</v>
@@ -3739,7 +3739,7 @@
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.3</v>
@@ -3796,64 +3796,64 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
         <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -3862,10 +3862,10 @@
         <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
         <v>60</v>
@@ -3874,10 +3874,10 @@
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -3907,61 +3907,61 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
@@ -3973,16 +3973,16 @@
         <v>160</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -3994,7 +3994,7 @@
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4006,10 +4006,10 @@
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H27" t="n">
         <v>2.84</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
         <v>1.52</v>
@@ -4066,34 +4066,34 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.93</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -4102,7 +4102,7 @@
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
         <v>55</v>
@@ -4123,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
         <v>21</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
         <v>4.8</v>
@@ -4192,7 +4192,7 @@
         <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.43</v>
@@ -4201,34 +4201,34 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X28" t="n">
         <v>13.5</v>
@@ -4243,10 +4243,10 @@
         <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>980</v>
@@ -4273,7 +4273,7 @@
         <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM28" t="n">
         <v>140</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.55</v>
@@ -4336,34 +4336,34 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
         <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V29" t="n">
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
         <v>9</v>
@@ -4450,13 +4450,13 @@
         <v>3.25</v>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H30" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I30" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -4465,7 +4465,7 @@
         <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -4477,13 +4477,13 @@
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="n">
         <v>3.9</v>
@@ -4492,16 +4492,16 @@
         <v>1.86</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9.4</v>
@@ -4543,7 +4543,7 @@
         <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
         <v>140</v>
@@ -4582,55 +4582,55 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
         <v>2.92</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S31" t="n">
         <v>3.45</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W31" t="n">
         <v>1.3</v>
@@ -4717,58 +4717,58 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="I32" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="J32" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="T32" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V32" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="W32" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.55</v>
@@ -4876,49 +4876,49 @@
         <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
         <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V33" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X33" t="n">
         <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z33" t="n">
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AB33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
@@ -4927,7 +4927,7 @@
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
         <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.3</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
         <v>1.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -1243,7 +1243,7 @@
         <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
         <v>1.05</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>11.5</v>
@@ -1363,37 +1363,37 @@
         <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
         <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I8" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1507,28 +1507,28 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
         <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
         <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
@@ -1543,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1558,31 +1558,31 @@
         <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AK8" t="n">
         <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN8" t="n">
         <v>110</v>
       </c>
-      <c r="AN8" t="n">
-        <v>100</v>
-      </c>
       <c r="AO8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G9" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>1.39</v>
@@ -1624,10 +1624,10 @@
         <v>1.4</v>
       </c>
       <c r="J9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>5.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1678,19 +1678,19 @@
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="n">
         <v>34</v>
@@ -1702,13 +1702,13 @@
         <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AK9" t="n">
         <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1717,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1771,19 +1771,19 @@
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O10" t="n">
         <v>1.56</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
         <v>5.5</v>
@@ -1795,13 +1795,13 @@
         <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>8.199999999999999</v>
@@ -1810,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -1822,7 +1822,7 @@
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
@@ -1843,7 +1843,7 @@
         <v>50</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>190</v>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
@@ -1939,55 +1939,55 @@
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>8.6</v>
       </c>
       <c r="I12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>6.2</v>
@@ -2104,7 +2104,7 @@
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
         <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2215,10 +2215,10 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
         <v>980</v>
@@ -2230,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
         <v>980</v>
@@ -2239,7 +2239,7 @@
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>980</v>
@@ -2251,13 +2251,13 @@
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2305,19 +2305,19 @@
         <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
         <v>2.06</v>
@@ -2341,7 +2341,7 @@
         <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2428,13 +2428,13 @@
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
         <v>1.78</v>
@@ -2569,7 +2569,7 @@
         <v>1.96</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>4.6</v>
@@ -2692,76 +2692,76 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
         <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V17" t="n">
         <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>32</v>
@@ -2770,10 +2770,10 @@
         <v>140</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>27</v>
@@ -2785,16 +2785,16 @@
         <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="n">
         <v>190</v>
@@ -2833,10 +2833,10 @@
         <v>1.06</v>
       </c>
       <c r="H18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I18" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="J18" t="n">
         <v>22</v>
@@ -2854,25 +2854,25 @@
         <v>12.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P18" t="n">
-        <v>4.7</v>
+        <v>2.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R18" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="S18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T18" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="U18" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="V18" t="n">
         <v>1.01</v>
@@ -2881,7 +2881,7 @@
         <v>17.5</v>
       </c>
       <c r="X18" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,10 +2917,10 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,7 +2965,7 @@
         <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -2977,7 +2977,7 @@
         <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,16 +2986,16 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
@@ -3013,10 +3013,10 @@
         <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
         <v>17</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
         <v>2.12</v>
@@ -3127,28 +3127,28 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" t="n">
         <v>1.49</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U20" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
         <v>30</v>
@@ -3157,7 +3157,7 @@
         <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA20" t="n">
         <v>28</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.44</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.45</v>
       </c>
       <c r="H21" t="n">
         <v>7.6</v>
@@ -3247,7 +3247,7 @@
         <v>5.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.24</v>
@@ -3262,13 +3262,13 @@
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="n">
         <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
         <v>2.14</v>
@@ -3283,7 +3283,7 @@
         <v>1.14</v>
       </c>
       <c r="W21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -3313,7 +3313,7 @@
         <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
         <v>19.5</v>
@@ -3331,7 +3331,7 @@
         <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
         <v>4.5</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G22" t="n">
         <v>6.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K22" t="n">
         <v>5.7</v>
@@ -3406,13 +3406,13 @@
         <v>2.12</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="V22" t="n">
         <v>3</v>
@@ -3442,7 +3442,7 @@
         <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF22" t="n">
         <v>75</v>
@@ -3472,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.97</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.98</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3538,10 +3538,10 @@
         <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
         <v>1.66</v>
@@ -3556,16 +3556,16 @@
         <v>2.02</v>
       </c>
       <c r="X23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y23" t="n">
         <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3592,7 +3592,7 @@
         <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>18.5</v>
@@ -3640,7 +3640,7 @@
         <v>1.57</v>
       </c>
       <c r="G24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
@@ -3655,7 +3655,7 @@
         <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3664,7 +3664,7 @@
         <v>3.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
         <v>2.02</v>
@@ -3676,25 +3676,25 @@
         <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U24" t="n">
         <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3703,13 +3703,13 @@
         <v>230</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>120</v>
@@ -3721,16 +3721,16 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>38</v>
@@ -3739,7 +3739,7 @@
         <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.6</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.68</v>
-      </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
@@ -3790,67 +3790,67 @@
         <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
         <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -3859,25 +3859,25 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3907,76 +3907,76 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.77</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.8</v>
-      </c>
       <c r="H26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB26" t="n">
         <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>21</v>
@@ -3985,34 +3985,34 @@
         <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AO26" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G27" t="n">
         <v>2.96</v>
       </c>
       <c r="H27" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -4060,7 +4060,7 @@
         <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
@@ -4075,7 +4075,7 @@
         <v>1.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
@@ -4090,7 +4090,7 @@
         <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W27" t="n">
         <v>1.51</v>
@@ -4099,16 +4099,16 @@
         <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
         <v>7.6</v>
@@ -4120,19 +4120,19 @@
         <v>980</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>980</v>
       </c>
       <c r="AK27" t="n">
         <v>40</v>
@@ -4144,10 +4144,10 @@
         <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4180,22 +4180,22 @@
         <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4204,10 +4204,10 @@
         <v>3.45</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
         <v>2.06</v>
@@ -4216,61 +4216,61 @@
         <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
       </c>
       <c r="AB28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC28" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>980</v>
@@ -4279,10 +4279,10 @@
         <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -4330,7 +4330,7 @@
         <v>3.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -4339,16 +4339,16 @@
         <v>2.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
         <v>4.7</v>
@@ -4456,7 +4456,7 @@
         <v>2.36</v>
       </c>
       <c r="I30" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -4468,7 +4468,7 @@
         <v>1.45</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
         <v>3.3</v>
@@ -4489,70 +4489,70 @@
         <v>3.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
         <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G31" t="n">
         <v>4.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="I31" t="n">
         <v>2.7</v>
@@ -4597,25 +4597,25 @@
         <v>2.92</v>
       </c>
       <c r="K31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
         <v>1.2</v>
@@ -4627,7 +4627,7 @@
         <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
         <v>1.58</v>
@@ -4732,10 +4732,10 @@
         <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4744,7 +4744,7 @@
         <v>3.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>1.97</v>
@@ -4855,7 +4855,7 @@
         <v>4.4</v>
       </c>
       <c r="G33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -4864,7 +4864,7 @@
         <v>2.08</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.5</v>
@@ -4873,7 +4873,7 @@
         <v>1.55</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
         <v>2.8</v>
@@ -4897,7 +4897,7 @@
         <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
         <v>1.92</v>
@@ -4927,10 +4927,10 @@
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF33" t="n">
         <v>980</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>40</v>
       </c>
       <c r="AG33" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.82</v>
       </c>
       <c r="I2" t="n">
         <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>2.02</v>
@@ -718,25 +718,25 @@
         <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>14.5</v>
@@ -751,19 +751,19 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -829,19 +829,19 @@
         <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="P3" t="n">
         <v>1.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>2.66</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -964,7 +964,7 @@
         <v>1.34</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
         <v>1.34</v>
@@ -985,10 +985,10 @@
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>2.8</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>2.54</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G7" t="n">
         <v>11.5</v>
@@ -1351,19 +1351,19 @@
         <v>1.39</v>
       </c>
       <c r="I7" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>3.5</v>
@@ -1390,10 +1390,10 @@
         <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1408,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="n">
         <v>11.5</v>
@@ -1426,7 +1426,7 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="I8" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
         <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC8" t="n">
         <v>13</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="AK8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="n">
         <v>110</v>
       </c>
-      <c r="AL8" t="n">
-        <v>95</v>
-      </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="I9" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="n">
         <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
         <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="AK9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM9" t="n">
         <v>120</v>
       </c>
-      <c r="AL9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10">
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
         <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
         <v>2.68</v>
@@ -1786,73 +1786,73 @@
         <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
       </c>
       <c r="AI10" t="n">
+        <v>480</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>70</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>65</v>
-      </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO10" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1888,19 +1888,19 @@
         <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1912,7 +1912,7 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
         <v>1.77</v>
@@ -1924,7 +1924,7 @@
         <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
         <v>2.28</v>
@@ -1942,52 +1942,52 @@
         <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="G12" t="n">
         <v>1.37</v>
@@ -2026,13 +2026,13 @@
         <v>8.6</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>6.2</v>
       </c>
       <c r="K12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.15</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
@@ -2053,19 +2053,19 @@
         <v>1.29</v>
       </c>
       <c r="R12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W12" t="n">
         <v>3.7</v>
@@ -2074,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="n">
         <v>44</v>
@@ -2101,7 +2101,7 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>90</v>
@@ -2113,16 +2113,16 @@
         <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2176,7 +2176,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2191,73 +2191,73 @@
         <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
         <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2326,7 +2326,7 @@
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T14" t="n">
         <v>1.78</v>
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>2.32</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>1.35</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,10 +2446,10 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
         <v>1.15</v>
@@ -2464,7 +2464,7 @@
         <v>1.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
         <v>1.03</v>
@@ -2491,7 +2491,7 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2563,16 +2563,16 @@
         <v>5.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
@@ -2581,13 +2581,13 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
         <v>1.87</v>
@@ -2602,16 +2602,16 @@
         <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W16" t="n">
         <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
@@ -2620,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
@@ -2641,7 +2641,7 @@
         <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="H17" t="n">
-        <v>8.6</v>
+        <v>75</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J17" t="n">
+        <v>22</v>
+      </c>
+      <c r="K17" t="n">
+        <v>23</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P17" t="n">
         <v>4.8</v>
       </c>
-      <c r="K17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>2.6</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>1.59</v>
       </c>
       <c r="T17" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="Y17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
+        <v>230</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>330</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>7</v>
+        <v>1.92</v>
       </c>
       <c r="AO17" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.06</v>
       </c>
-      <c r="H18" t="n">
+      <c r="N18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z18" t="n">
         <v>75</v>
       </c>
-      <c r="I18" t="n">
-        <v>220</v>
-      </c>
-      <c r="J18" t="n">
-        <v>22</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.02</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,55 +2986,55 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
         <v>34</v>
@@ -3046,16 +3046,16 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3064,10 +3064,10 @@
         <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3127,7 +3127,7 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="Q20" t="n">
         <v>1.49</v>
@@ -3136,52 +3136,52 @@
         <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
         <v>1.47</v>
       </c>
       <c r="U20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y20" t="n">
         <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -3193,16 +3193,16 @@
         <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3232,109 +3232,109 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="H21" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
         <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
         <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>13</v>
       </c>
-      <c r="AD21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AL21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM21" t="n">
         <v>70</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>80</v>
-      </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AO21" t="n">
         <v>65</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G22" t="n">
         <v>6.8</v>
@@ -3379,10 +3379,10 @@
         <v>1.5</v>
       </c>
       <c r="J22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.2</v>
@@ -3391,28 +3391,28 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R22" t="n">
         <v>2.12</v>
       </c>
       <c r="S22" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U22" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="V22" t="n">
         <v>3</v>
@@ -3424,16 +3424,16 @@
         <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC22" t="n">
         <v>14.5</v>
@@ -3442,10 +3442,10 @@
         <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG22" t="n">
         <v>26</v>
@@ -3454,16 +3454,16 @@
         <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="n">
         <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>55</v>
@@ -3472,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3526,7 +3526,7 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.24</v>
@@ -3541,19 +3541,19 @@
         <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
         <v>18.5</v>
@@ -3565,25 +3565,25 @@
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>16</v>
@@ -3592,19 +3592,19 @@
         <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
         <v>36</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3673,37 +3673,37 @@
         <v>1.86</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
         <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
@@ -3712,34 +3712,34 @@
         <v>30</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
@@ -3796,13 +3796,13 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O25" t="n">
         <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
         <v>2.42</v>
@@ -3811,19 +3811,19 @@
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X25" t="n">
         <v>9.800000000000001</v>
@@ -3859,7 +3859,7 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
         <v>38</v>
@@ -3868,10 +3868,10 @@
         <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
         <v>34</v>
@@ -3907,31 +3907,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H26" t="n">
         <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
@@ -3949,7 +3949,7 @@
         <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
@@ -3958,13 +3958,13 @@
         <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>44</v>
@@ -3976,7 +3976,7 @@
         <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
         <v>21</v>
@@ -3988,7 +3988,7 @@
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH26" t="n">
         <v>20</v>
@@ -4012,7 +4012,7 @@
         <v>10.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4042,40 +4042,40 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="G27" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I27" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
@@ -4084,70 +4084,70 @@
         <v>4.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
         <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
       </c>
       <c r="Y27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB27" t="n">
         <v>11</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
         <v>7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>22</v>
       </c>
-      <c r="AG27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>25</v>
-      </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
         <v>60</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -4201,13 +4201,13 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q28" t="n">
         <v>2.06</v>
@@ -4216,13 +4216,13 @@
         <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
@@ -4231,58 +4231,58 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>75</v>
       </c>
-      <c r="AF28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH28" t="n">
+      <c r="AK28" t="n">
         <v>23</v>
       </c>
-      <c r="AI28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>26</v>
-      </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -4312,106 +4312,106 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V29" t="n">
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF29" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>16</v>
-      </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AJ29" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AK29" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM29" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
         <v>34</v>
@@ -4450,16 +4450,16 @@
         <v>3.25</v>
       </c>
       <c r="G30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I30" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.55</v>
@@ -4477,19 +4477,19 @@
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R30" t="n">
         <v>1.3</v>
       </c>
       <c r="S30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
         <v>2.02</v>
@@ -4507,25 +4507,25 @@
         <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="n">
         <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
         <v>18</v>
@@ -4537,22 +4537,22 @@
         <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
         <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="G31" t="n">
         <v>4.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="J31" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.44</v>
@@ -4606,19 +4606,19 @@
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
         <v>3.45</v>
@@ -4627,16 +4627,16 @@
         <v>1.92</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="W31" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,59 +4717,59 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I32" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.31</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4861,16 +4861,16 @@
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
@@ -4879,10 +4879,10 @@
         <v>2.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
         <v>2.46</v>
@@ -4894,13 +4894,13 @@
         <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W33" t="n">
         <v>1.26</v>
@@ -4927,7 +4927,7 @@
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF33" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
@@ -715,25 +715,25 @@
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -742,37 +742,37 @@
         <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK2" t="n">
         <v>55</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>32</v>
-      </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>1.81</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.56</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>2.22</v>
       </c>
       <c r="W3" t="n">
         <v>1.13</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="R4" t="n">
         <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>2.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>1.44</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>1.32</v>
+        <v>2.52</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="P5" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1207,91 +1207,91 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>3.85</v>
       </c>
       <c r="G6" t="n">
-        <v>44</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="I6" t="n">
-        <v>44</v>
+        <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
         <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,82 +1342,82 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB7" t="n">
         <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>85</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
@@ -1483,10 +1483,10 @@
         <v>10.5</v>
       </c>
       <c r="H8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.37</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.38</v>
       </c>
       <c r="J8" t="n">
         <v>5.7</v>
@@ -1498,34 +1498,34 @@
         <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q8" t="n">
         <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
         <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="W8" t="n">
         <v>1.1</v>
@@ -1537,13 +1537,13 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA8" t="n">
         <v>11.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
         <v>36</v>
@@ -1567,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>340</v>
+        <v>630</v>
       </c>
       <c r="AK8" t="n">
         <v>130</v>
@@ -1618,16 +1618,16 @@
         <v>8.6</v>
       </c>
       <c r="H9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.45</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.46</v>
       </c>
       <c r="J9" t="n">
         <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1636,31 +1636,31 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W9" t="n">
         <v>1.13</v>
@@ -1669,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
         <v>8.800000000000001</v>
@@ -1678,10 +1678,10 @@
         <v>12.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
         <v>10</v>
@@ -1693,22 +1693,22 @@
         <v>75</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
         <v>120</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="I10" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
@@ -1765,22 +1765,22 @@
         <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
         <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R10" t="n">
         <v>1.2</v>
@@ -1795,10 +1795,10 @@
         <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
         <v>8.6</v>
@@ -1807,34 +1807,34 @@
         <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>95</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>70</v>
@@ -1843,16 +1843,16 @@
         <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
         <v>2.7</v>
@@ -1894,7 +1894,7 @@
         <v>2.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
@@ -1921,7 +1921,7 @@
         <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T11" t="n">
         <v>1.66</v>
@@ -1936,58 +1936,58 @@
         <v>1.58</v>
       </c>
       <c r="X11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO11" t="n">
         <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2020,22 +2020,22 @@
         <v>1.34</v>
       </c>
       <c r="G12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J12" t="n">
         <v>6.2</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2047,19 +2047,19 @@
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R12" t="n">
         <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U12" t="n">
         <v>2.32</v>
@@ -2068,61 +2068,61 @@
         <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="X12" t="n">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="Y12" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL12" t="n">
         <v>60</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>32</v>
-      </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>3.35</v>
       </c>
       <c r="AO12" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
@@ -2167,7 +2167,7 @@
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2182,16 +2182,16 @@
         <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
         <v>1.75</v>
@@ -2203,10 +2203,10 @@
         <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
@@ -2221,7 +2221,7 @@
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2233,7 +2233,7 @@
         <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>60</v>
@@ -2242,13 +2242,13 @@
         <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="n">
         <v>110</v>
@@ -2257,7 +2257,7 @@
         <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G14" t="n">
         <v>2.7</v>
@@ -2296,10 +2296,10 @@
         <v>2.86</v>
       </c>
       <c r="I14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
@@ -2320,13 +2320,13 @@
         <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
         <v>1.78</v>
@@ -2356,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>28</v>
@@ -2383,13 +2383,13 @@
         <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2560,7 +2560,7 @@
         <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>1.8</v>
@@ -2569,7 +2569,7 @@
         <v>1.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
@@ -2581,7 +2581,7 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2596,13 +2596,13 @@
         <v>1.36</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
         <v>2.06</v>
@@ -2611,28 +2611,28 @@
         <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
         <v>14</v>
       </c>
-      <c r="AA16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
@@ -2641,7 +2641,7 @@
         <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>1.07</v>
       </c>
       <c r="H17" t="n">
+        <v>65</v>
+      </c>
+      <c r="I17" t="n">
         <v>75</v>
       </c>
-      <c r="I17" t="n">
-        <v>85</v>
-      </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" t="n">
         <v>1.15</v>
@@ -2722,28 +2722,28 @@
         <v>1.07</v>
       </c>
       <c r="P17" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R17" t="n">
         <v>2.6</v>
       </c>
       <c r="S17" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="T17" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="U17" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V17" t="n">
         <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
         <v>85</v>
@@ -2758,13 +2758,13 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="AD17" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2776,13 +2776,13 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK17" t="n">
         <v>18</v>
@@ -2791,10 +2791,10 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2833,16 +2833,16 @@
         <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.38</v>
@@ -2854,7 +2854,7 @@
         <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>2.12</v>
@@ -2863,16 +2863,16 @@
         <v>1.86</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
         <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
         <v>1.12</v>
@@ -2884,7 +2884,7 @@
         <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
         <v>75</v>
@@ -2893,10 +2893,10 @@
         <v>310</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>32</v>
@@ -2911,10 +2911,10 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -2926,13 +2926,13 @@
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
         <v>2.3</v>
@@ -2974,13 +2974,13 @@
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3001,25 +3001,25 @@
         <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
         <v>25</v>
@@ -3028,7 +3028,7 @@
         <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
@@ -3043,13 +3043,13 @@
         <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -3067,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I20" t="n">
         <v>2.24</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.26</v>
@@ -3124,7 +3124,7 @@
         <v>6.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
         <v>2.96</v>
@@ -3148,16 +3148,16 @@
         <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
         <v>28</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>30</v>
@@ -3166,7 +3166,7 @@
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
@@ -3181,28 +3181,28 @@
         <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>44</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -3256,73 +3256,73 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
         <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF21" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -3331,13 +3331,13 @@
         <v>23</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.2</v>
@@ -3397,82 +3397,82 @@
         <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q22" t="n">
         <v>1.34</v>
       </c>
       <c r="R22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S22" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T22" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="U22" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W22" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
       </c>
       <c r="Z22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="n">
         <v>14</v>
       </c>
-      <c r="AA22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM22" t="n">
         <v>46</v>
       </c>
-      <c r="AC22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>55</v>
-      </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G23" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>1.34</v>
@@ -3550,10 +3550,10 @@
         <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
         <v>18.5</v>
@@ -3568,16 +3568,16 @@
         <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -3637,88 +3637,88 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="G24" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I24" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>24</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA24" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AE24" t="n">
         <v>420</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -3727,19 +3727,19 @@
         <v>330</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
@@ -3796,7 +3796,7 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
         <v>1.48</v>
@@ -3805,52 +3805,52 @@
         <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -3862,7 +3862,7 @@
         <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
         <v>34</v>
@@ -3874,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
         <v>55</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G26" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
         <v>3.95</v>
@@ -3931,7 +3931,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
@@ -3940,64 +3940,64 @@
         <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X26" t="n">
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH26" t="n">
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
         <v>17.5</v>
@@ -4006,13 +4006,13 @@
         <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
         <v>2.88</v>
@@ -4057,7 +4057,7 @@
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.53</v>
@@ -4066,13 +4066,13 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
         <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
         <v>2.34</v>
@@ -4084,7 +4084,7 @@
         <v>4.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U27" t="n">
         <v>1.93</v>
@@ -4093,22 +4093,22 @@
         <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>9.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA27" t="n">
         <v>500</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>7.6</v>
@@ -4117,7 +4117,7 @@
         <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
@@ -4126,28 +4126,28 @@
         <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ27" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AK27" t="n">
         <v>120</v>
       </c>
       <c r="AL27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
         <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -4201,88 +4201,88 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AB28" t="n">
         <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
         <v>19.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AJ28" t="n">
         <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -4333,64 +4333,64 @@
         <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U29" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
         <v>1.78</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -4402,19 +4402,19 @@
         <v>380</v>
       </c>
       <c r="AJ29" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK29" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G30" t="n">
         <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I30" t="n">
         <v>2.44</v>
@@ -4462,7 +4462,7 @@
         <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
         <v>1.45</v>
@@ -4471,88 +4471,88 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
         <v>1.3</v>
       </c>
       <c r="S30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W30" t="n">
         <v>1.4</v>
       </c>
       <c r="X30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG30" t="n">
         <v>15</v>
       </c>
-      <c r="Y30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>18</v>
-      </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I31" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
         <v>3.45</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4612,31 +4612,31 @@
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
         <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4717,58 +4717,58 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
         <v>2.18</v>
       </c>
       <c r="I32" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="J32" t="n">
         <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="O32" t="n">
-        <v>1.05</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4795,7 +4795,7 @@
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
@@ -4867,7 +4867,7 @@
         <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.57</v>
@@ -4876,16 +4876,16 @@
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O33" t="n">
         <v>1.52</v>
       </c>
       <c r="P33" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
@@ -4894,19 +4894,19 @@
         <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U33" t="n">
         <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W33" t="n">
         <v>1.26</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
         <v>7</v>
@@ -4915,13 +4915,13 @@
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
         <v>11.5</v>
@@ -4936,7 +4936,7 @@
         <v>20</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI33" t="n">
         <v>55</v>
@@ -4948,13 +4948,13 @@
         <v>80</v>
       </c>
       <c r="AL33" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM33" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN33" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO33" t="n">
         <v>25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
         <v>130</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AN2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO2" t="n">
         <v>55</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="V3" t="n">
-        <v>2.22</v>
+        <v>2.92</v>
       </c>
       <c r="W3" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="X3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
         <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="P4" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" t="n">
         <v>3.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="O5" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.96</v>
       </c>
       <c r="X5" t="n">
         <v>90</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,49 +1210,49 @@
         <v>3.85</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V6" t="n">
         <v>1.64</v>
@@ -1261,7 +1261,7 @@
         <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y6" t="n">
         <v>6.6</v>
@@ -1270,13 +1270,13 @@
         <v>13.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
         <v>14</v>
@@ -1285,7 +1285,7 @@
         <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
         <v>3.15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7" t="n">
         <v>8.4</v>
@@ -1408,7 +1408,7 @@
         <v>12.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G8" t="n">
         <v>10</v>
       </c>
-      <c r="G8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
         <v>5.9</v>
@@ -1501,43 +1501,43 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>11.5</v>
@@ -1555,25 +1555,25 @@
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>630</v>
+        <v>320</v>
       </c>
       <c r="AK8" t="n">
         <v>130</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="AK9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AL9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="10">
@@ -1747,88 +1747,88 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.55</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>95</v>
+        <v>420</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
@@ -1837,22 +1837,22 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="n">
         <v>480</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G11" t="n">
         <v>2.7</v>
@@ -1891,55 +1891,55 @@
         <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
         <v>19.5</v>
@@ -1948,19 +1948,19 @@
         <v>200</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="S12" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="T12" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
         <v>13.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
         <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2182,40 +2182,40 @@
         <v>1.3</v>
       </c>
       <c r="P13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.92</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.89</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
@@ -2227,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF13" t="n">
         <v>13.5</v>
@@ -2236,25 +2236,25 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="n">
         <v>60</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
         <v>150</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
         <v>240</v>
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
         <v>22</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD14" t="n">
         <v>28</v>
@@ -2368,16 +2368,16 @@
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2386,7 +2386,7 @@
         <v>290</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>70</v>
@@ -2422,52 +2422,52 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>1.15</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
         <v>5.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.87</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2653,7 +2653,7 @@
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.06</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.07</v>
-      </c>
       <c r="H17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I17" t="n">
         <v>75</v>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
         <v>1.15</v>
@@ -2716,85 +2716,85 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="O17" t="n">
         <v>1.07</v>
       </c>
       <c r="P17" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R17" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="S17" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="T17" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="V17" t="n">
         <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X17" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL17" t="n">
         <v>85</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,43 +2827,43 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.46</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.47</v>
-      </c>
       <c r="H18" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
         <v>3.15</v>
@@ -2872,34 +2872,34 @@
         <v>2.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
         <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
         <v>140</v>
@@ -2911,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
         <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -2929,10 +2929,10 @@
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -2962,88 +2962,88 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="S19" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>15</v>
@@ -3052,22 +3052,22 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
         <v>2.24</v>
@@ -3115,7 +3115,7 @@
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3127,43 +3127,43 @@
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.81</v>
       </c>
-      <c r="S20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
         <v>10</v>
@@ -3175,31 +3175,31 @@
         <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
         <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>9</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.16</v>
@@ -3268,34 +3268,34 @@
         <v>1.49</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3304,40 +3304,40 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I22" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="J22" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K22" t="n">
         <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O22" t="n">
         <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
         <v>1.34</v>
       </c>
       <c r="R22" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T22" t="n">
         <v>1.47</v>
       </c>
       <c r="U22" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="V22" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="W22" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
         <v>16</v>
@@ -3433,7 +3433,7 @@
         <v>18.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC22" t="n">
         <v>14</v>
@@ -3451,28 +3451,28 @@
         <v>24</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="n">
         <v>55</v>
       </c>
       <c r="AL22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM22" t="n">
         <v>44</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>46</v>
       </c>
       <c r="AN22" t="n">
         <v>36</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>1.96</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
@@ -3520,34 +3520,34 @@
         <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
         <v>1.3</v>
@@ -3559,7 +3559,7 @@
         <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
         <v>32</v>
@@ -3571,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
         <v>17</v>
@@ -3580,13 +3580,13 @@
         <v>44</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
         <v>48</v>
@@ -3595,19 +3595,19 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H24" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J24" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3667,19 +3667,19 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U24" t="n">
         <v>1.93</v>
@@ -3688,10 +3688,10 @@
         <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
         <v>24</v>
@@ -3730,7 +3730,7 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>95</v>
@@ -3739,7 +3739,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
@@ -3790,13 +3790,13 @@
         <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
         <v>1.48</v>
@@ -3805,25 +3805,25 @@
         <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="X25" t="n">
         <v>9.800000000000001</v>
@@ -3832,7 +3832,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
         <v>60</v>
@@ -3844,10 +3844,10 @@
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
         <v>15.5</v>
@@ -3859,7 +3859,7 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
         <v>40</v>
@@ -3871,7 +3871,7 @@
         <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
         <v>36</v>
@@ -3907,70 +3907,70 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="G26" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W26" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="X26" t="n">
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB26" t="n">
         <v>8.800000000000001</v>
@@ -3979,40 +3979,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
         <v>17.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -4048,10 +4048,10 @@
         <v>2.88</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4060,73 +4060,73 @@
         <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W27" t="n">
         <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
         <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>300</v>
@@ -4135,7 +4135,7 @@
         <v>200</v>
       </c>
       <c r="AK27" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AL27" t="n">
         <v>300</v>
@@ -4144,10 +4144,10 @@
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I28" t="n">
         <v>4.5</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>3.65</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.37</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W28" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
         <v>16</v>
       </c>
       <c r="Z28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE28" t="n">
         <v>55</v>
       </c>
-      <c r="AA28" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>160</v>
-      </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK28" t="n">
         <v>21</v>
       </c>
-      <c r="AI28" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>22</v>
-      </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4315,76 +4315,76 @@
         <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
         <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>160</v>
@@ -4393,28 +4393,28 @@
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
         <v>23</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>70</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="I30" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
@@ -4465,76 +4465,76 @@
         <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>9.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AJ30" t="n">
         <v>220</v>
@@ -4543,7 +4543,7 @@
         <v>130</v>
       </c>
       <c r="AL30" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
@@ -4552,7 +4552,7 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -4582,64 +4582,64 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G31" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="I31" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
         <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4720,55 +4720,55 @@
         <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="I32" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="J32" t="n">
         <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.84</v>
       </c>
-      <c r="U32" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W32" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J33" t="n">
         <v>3.45</v>
@@ -4873,52 +4873,52 @@
         <v>1.57</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O33" t="n">
         <v>1.52</v>
       </c>
       <c r="P33" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T33" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U33" t="n">
         <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>7.8</v>
@@ -4927,25 +4927,25 @@
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG33" t="n">
         <v>20</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>750</v>
       </c>
       <c r="AJ33" t="n">
         <v>150</v>
       </c>
       <c r="AK33" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
         <v>120</v>
@@ -4957,7 +4957,7 @@
         <v>150</v>
       </c>
       <c r="AO33" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,118 +667,118 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>2.02</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>2.08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.57</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>1.33</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>3.9</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4.4</v>
+        <v>60</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.17</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>2.64</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>410</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Italian Serie D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Acireale</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>ASD Paterno</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.199999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>13.5</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.44</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.52</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.68</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2.92</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -928,91 +928,91 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Club Sportif Sfaxien</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.56</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.24</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>2.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5">
@@ -1063,97 +1063,97 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="P5" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>2.18</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1198,109 +1198,109 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>US Monastirienne</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.85</v>
+        <v>1.97</v>
       </c>
       <c r="G6" t="n">
-        <v>4.4</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.2</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.4</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.29</v>
+        <v>1.91</v>
       </c>
       <c r="X6" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,114 +1328,114 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>US Monastirienne</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.41</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.15</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>6.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1447,13 +1447,13 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I8" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9">
@@ -1603,97 +1603,97 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AA9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="n">
         <v>25</v>
@@ -1702,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="AK9" t="n">
         <v>130</v>
@@ -1711,19 +1711,19 @@
         <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>9.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.15</v>
+        <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>1.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>1.41</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.78</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>5.8</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>3.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>8.4</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>420</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>42</v>
-      </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="AK10" t="n">
         <v>130</v>
       </c>
       <c r="AL10" t="n">
-        <v>480</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AO10" t="n">
-        <v>50</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>2.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.33</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>9.800000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI12" t="n">
         <v>150</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>230</v>
       </c>
       <c r="AK12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.92</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>1.32</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>4.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.27</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>2.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>1.69</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>4.1</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>95</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>2.96</v>
       </c>
       <c r="AO13" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2278,40 +2278,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
         <v>1.31</v>
@@ -2323,76 +2323,76 @@
         <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF14" t="n">
         <v>25</v>
       </c>
-      <c r="Y14" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ14" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
@@ -2452,82 +2452,82 @@
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2548,91 +2548,91 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>5.3</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
-        <v>1.86</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U16" t="n">
         <v>2</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
@@ -2653,7 +2653,7 @@
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2662,13 +2662,13 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.06</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>1.89</v>
       </c>
       <c r="I17" t="n">
-        <v>75</v>
+        <v>1.97</v>
       </c>
       <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>25</v>
       </c>
-      <c r="K17" t="n">
-        <v>26</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AA17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
         <v>14</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W17" t="n">
-        <v>18</v>
-      </c>
-      <c r="X17" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>60</v>
-      </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.81</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="n">
+        <v>25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>14</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.45</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>3.2</v>
+        <v>18</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="Y18" t="n">
+        <v>240</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG18" t="n">
         <v>27</v>
       </c>
-      <c r="Z18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.6</v>
+        <v>1.78</v>
       </c>
       <c r="AO18" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>1.43</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.77</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.48</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>3.3</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL19" t="n">
         <v>48</v>
       </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>6.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.27</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.16</v>
-      </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="U20" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO20" t="n">
         <v>24</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.48</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>1.49</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>7.4</v>
+        <v>2.24</v>
       </c>
       <c r="J21" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.96</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="X21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA21" t="n">
         <v>30</v>
       </c>
-      <c r="Y21" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>240</v>
-      </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>75</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.8</v>
+        <v>1.45</v>
       </c>
       <c r="G22" t="n">
-        <v>5.9</v>
+        <v>1.46</v>
       </c>
       <c r="H22" t="n">
-        <v>1.57</v>
+        <v>7.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.58</v>
+        <v>7.8</v>
       </c>
       <c r="J22" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>2.72</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>1.2</v>
+        <v>3.15</v>
       </c>
       <c r="X22" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="AA22" t="n">
-        <v>18.5</v>
+        <v>240</v>
       </c>
       <c r="AB22" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>18.5</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>130</v>
+        <v>13.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.96</v>
+        <v>5.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>1.56</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>1.57</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>2.88</v>
+        <v>1.87</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="U23" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>2.74</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>1.2</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AO23" t="n">
-        <v>40</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.52</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.41</v>
-      </c>
       <c r="S24" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC24" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD24" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>24</v>
       </c>
-      <c r="AI24" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.52</v>
+        <v>1.55</v>
       </c>
       <c r="G25" t="n">
-        <v>2.56</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>1.64</v>
+        <v>2.66</v>
       </c>
       <c r="X25" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
-        <v>46</v>
+        <v>420</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>2.54</v>
       </c>
       <c r="H26" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.41</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W26" t="n">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AO26" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>2.84</v>
+        <v>5.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.92</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.54</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="S27" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.06</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO27" t="n">
         <v>300</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>2.84</v>
       </c>
       <c r="G28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T28" t="n">
         <v>2.06</v>
       </c>
-      <c r="H28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="V28" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="W28" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.2</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="X29" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
         <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
-        <v>2.52</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V30" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>7.4</v>
       </c>
       <c r="AD30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
         <v>21</v>
       </c>
-      <c r="AG30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI30" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="n">
         <v>130</v>
       </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>3.25</v>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I31" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF31" t="n">
         <v>22</v>
       </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -4708,94 +4708,94 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Carabobo FC</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="I32" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J32" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P32" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U32" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="V32" t="n">
         <v>1.65</v>
       </c>
       <c r="W32" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,261 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="K33" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.52</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>1.6</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="Q34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S34" t="n">
         <v>5.2</v>
       </c>
-      <c r="T33" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="T34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.78</v>
       </c>
-      <c r="V33" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W33" t="n">
+      <c r="V34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.27</v>
       </c>
-      <c r="X33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y33" t="n">
+      <c r="X34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.8</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="Z34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AE34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG34" t="n">
         <v>20</v>
       </c>
-      <c r="AH33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>750</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN34" t="n">
         <v>120</v>
       </c>
-      <c r="AM33" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>32</v>
+      <c r="AO34" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Matsumoto</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tegevajaro Miyazaki</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>1.43</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55</v>
+        <v>1.46</v>
       </c>
       <c r="J2" t="n">
-        <v>2.02</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.08</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.33</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>3.9</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>60</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>3.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="X2" t="n">
-        <v>2.64</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>12.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>60</v>
+        <v>9.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>410</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie D</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acireale</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASD Paterno</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>10.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>1.35</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>3.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>310</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>430</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>360</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Sportif Sfaxien</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA4" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
         <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
         <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
         <v>17</v>
       </c>
-      <c r="Y5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>22</v>
-      </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>2.84</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.58</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
         <v>95</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>US Monastirienne</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>1.32</v>
       </c>
       <c r="H7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="AD8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH8" t="n">
-        <v>85</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.29</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P9" t="n">
-        <v>2.76</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.34</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>3.75</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="AK9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.4</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
-        <v>9.6</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U10" t="n">
         <v>2</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V10" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>34</v>
-      </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.94</v>
+        <v>1.93</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>2.56</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>8.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>55</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.58</v>
+        <v>1.05</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>70</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>27</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.06</v>
       </c>
-      <c r="N12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>1.41</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>18.5</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>960</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>1.74</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="H13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.28</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
         <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="X13" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AA13" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.96</v>
+        <v>6.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
         <v>30</v>
       </c>
-      <c r="AA14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>220</v>
-      </c>
       <c r="AF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO14" t="n">
         <v>25</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL15" t="n">
         <v>28</v>
       </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>340</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>290</v>
-      </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>1.45</v>
       </c>
       <c r="G16" t="n">
-        <v>2.66</v>
+        <v>1.46</v>
       </c>
       <c r="H16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.84</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J17" t="n">
         <v>5.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>9.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>1.89</v>
+        <v>3.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>2.14</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>1.86</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="V17" t="n">
-        <v>2.02</v>
+        <v>2.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
       </c>
       <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>1.06</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>75</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>85</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>24</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>25</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>5.3</v>
+        <v>2.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="R18" t="n">
-        <v>2.78</v>
+        <v>1.77</v>
       </c>
       <c r="S18" t="n">
-        <v>1.55</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="U18" t="n">
-        <v>1.45</v>
+        <v>2.94</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>18</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>170</v>
+        <v>13.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.8</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.78</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC19" t="n">
         <v>10.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
       <c r="AD19" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN19" t="n">
         <v>7.6</v>
       </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AO19" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G20" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H20" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
         <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>38</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>34</v>
-      </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.25</v>
+        <v>1.92</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>2.22</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.24</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.27</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH21" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.45</v>
+        <v>2.82</v>
       </c>
       <c r="G22" t="n">
-        <v>1.46</v>
+        <v>2.84</v>
       </c>
       <c r="H22" t="n">
-        <v>7.6</v>
+        <v>2.84</v>
       </c>
       <c r="I22" t="n">
-        <v>7.8</v>
+        <v>2.92</v>
       </c>
       <c r="J22" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.27</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.52</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W22" t="n">
-        <v>3.15</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
         <v>36</v>
       </c>
-      <c r="Z22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AF22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.8</v>
+        <v>1.93</v>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>1.96</v>
       </c>
       <c r="H23" t="n">
-        <v>1.56</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>1.57</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>9.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>2.74</v>
+        <v>1.28</v>
       </c>
       <c r="W23" t="n">
-        <v>1.2</v>
+        <v>2.04</v>
       </c>
       <c r="X23" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK23" t="n">
         <v>19</v>
       </c>
-      <c r="AB23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO23" t="n">
         <v>55</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>4.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
         <v>13.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL24" t="n">
         <v>46</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AM24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN24" t="n">
         <v>24</v>
       </c>
-      <c r="AK24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>11</v>
-      </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>6.6</v>
+        <v>2.42</v>
       </c>
       <c r="I25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
         <v>7.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO25" t="n">
         <v>24</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.54</v>
+        <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>2.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.55</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="X26" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AE26" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.72</v>
+        <v>3.55</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>5.4</v>
+        <v>2.48</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.91</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="W27" t="n">
-        <v>2.3</v>
+        <v>1.37</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4163,936 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
       <c r="I28" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.54</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.52</v>
-      </c>
       <c r="P28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U28" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="X28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG28" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AO28" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Botafogo FR</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Vasco Da Gama</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X29" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Atletico MG</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Cruzeiro MG</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X31" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Deportivo Tachira</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Metropolitanos</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Carabobo FC</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE34" t="n">
         <v>27</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.4</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>8.6</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>1.46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>3.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>3.2</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.13</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>38</v>
+        <v>3.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.4</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>2.42</v>
       </c>
       <c r="G3" t="n">
-        <v>10.5</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>1.35</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>1.36</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>1.49</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>2.96</v>
       </c>
       <c r="R3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.69</v>
       </c>
-      <c r="S3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V3" t="n">
-        <v>3.75</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AK4" t="n">
         <v>11</v>
       </c>
-      <c r="AE4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>420</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>190</v>
-      </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>250</v>
+        <v>2.32</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.4</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="H5" t="n">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="n">
         <v>150</v>
       </c>
-      <c r="AM6" t="n">
-        <v>330</v>
-      </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.08</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="R7" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="S7" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>4.1</v>
+        <v>2.54</v>
       </c>
       <c r="X7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL7" t="n">
         <v>23</v>
       </c>
-      <c r="AI7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>25</v>
-      </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.04</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.34</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL8" t="n">
         <v>130</v>
       </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AM8" t="n">
         <v>260</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>95</v>
-      </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>1.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>220</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>5.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>2.84</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>1.51</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>4.1</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>1.21</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
         <v>21</v>
       </c>
-      <c r="Z9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>20</v>
-      </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>420</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>230</v>
+        <v>7.2</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>1.65</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>1.17</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
-        <v>1.93</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.96</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>2.04</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>30</v>
       </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO11" t="n">
         <v>42</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.06</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>70</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>75</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="n">
         <v>27</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AL12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN12" t="n">
         <v>23</v>
       </c>
-      <c r="AC12" t="n">
-        <v>960</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.41</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>10.5</v>
+        <v>1.56</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
         <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.06</v>
       </c>
-      <c r="N13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.28</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="W13" t="n">
-        <v>3.45</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>46</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.2</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.5</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AO13" t="n">
-        <v>340</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
         <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.99</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1.45</v>
       </c>
       <c r="G16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H16" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.9</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="H17" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>1.57</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>9.4</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>3.8</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.34</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>2.14</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.86</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
         <v>14</v>
       </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE17" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
         <v>65</v>
       </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AJ17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
         <v>150</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AN17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO17" t="n">
         <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>4.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>1.97</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.95</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.4</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="R18" t="n">
-        <v>1.77</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2.94</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="W18" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK18" t="n">
         <v>20</v>
       </c>
-      <c r="AF18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AL18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="n">
         <v>14</v>
       </c>
-      <c r="AH18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>17</v>
-      </c>
       <c r="AO18" t="n">
-        <v>9.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="H19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC19" t="n">
         <v>7.2</v>
       </c>
-      <c r="I19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -3083,123 +3083,123 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.54</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.1</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.8</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB20" t="n">
         <v>10</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>32</v>
       </c>
       <c r="AO20" t="n">
         <v>55</v>
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="I22" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.43</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.54</v>
-      </c>
       <c r="X22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
         <v>46</v>
       </c>
-      <c r="AB22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>38</v>
-      </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.93</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1.96</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>2.38</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>2.56</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>2.78</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>2.46</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>2.04</v>
+        <v>1.35</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="Z23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA23" t="n">
         <v>36</v>
       </c>
-      <c r="AA23" t="n">
-        <v>330</v>
-      </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="P24" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3758,87 +3758,87 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="I25" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.35</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>2.76</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T25" t="n">
         <v>2.18</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="W25" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
@@ -3847,441 +3847,36 @@
         <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Metropolitanos</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Carabobo FC</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Venezuelan Primera Division</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Deportivo Tachira</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X28" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO28" t="n">
         <v>27</v>
       </c>
     </row>
